--- a/biology/Zoologie/Pimpla_saussurei/Pimpla_saussurei.xlsx
+++ b/biology/Zoologie/Pimpla_saussurei/Pimpla_saussurei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpla saussurii
 Pimpla saussurei est une espèce fossile d’insectes hyménoptères de la tribu des Pimplini, dans la grande famille des Ichneumonidae.
@@ -512,19 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pimpla saussurei est décrite en 1856 par le naturaliste suisse Oswald Heer (1809-1883) sous le protonyme Pimpla saussurii[1],[2]. 
-Renommage
-L'espèce Pimpla saussurii est renommée Pimpla saussurei en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[3],[2].
-Synonyme
-Selon Paleobiology Database en 2023, un seul synonyme est référencé[2] :
-†Pimpla saussurii Heer, 1856
-Fossiles
-Selon Paleobiology Database en 2023, seulement deux collections de fossiles sont référencées du Chattien ou Oligocène supérieur, toutes les deux du département des Bouches-du-Rhône en France, d'Aix-en-Provence : 
-une du MNHN de Paris, décrite en 1915 par Fernand Meunier[4] et l'autre de la collection Murchison décrite en 1829 par John Curtis[5].
-Étymologie
-L'épithète spécifique latine saussurei (et saussurii) rend hommage à l'entomologiste suisse Henri de Saussure (1829-1905).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pimpla saussurei est décrite en 1856 par le naturaliste suisse Oswald Heer (1809-1883) sous le protonyme Pimpla saussurii,. 
 </t>
         </is>
       </c>
@@ -550,19 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
-« Éch. A17 et 17a. Coll Mus. Paris.
-L'empreinte et la contre-empreinte de cet Insecte sont mal conservées. La nervation des ailes n'est visible qu'en partie. Tête et thorax noirs, abdomen brun. »[3].
-Dimensions
-La longueur totale du corps, y compris la tarière, est de 12,5 mm[3].
-Affinités
-« Il n'est pas possible de déterminer avec précision cet échantillon. Heer de même n'a disposé que d'un mauvais exemplaire pour établir le type de cette espèce qui est sans aucune valeur. Elle est peut-être identique à Fintona aff. nigripalpais Cam. du même gisement. »[3].
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pimpla saussurii est renommée Pimpla saussurei en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
 </t>
         </is>
       </c>
@@ -588,13 +591,241 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, un seul synonyme est référencé :
+†Pimpla saussurii Heer, 1856</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, seulement deux collections de fossiles sont référencées du Chattien ou Oligocène supérieur, toutes les deux du département des Bouches-du-Rhône en France, d'Aix-en-Provence : 
+une du MNHN de Paris, décrite en 1915 par Fernand Meunier et l'autre de la collection Murchison décrite en 1829 par John Curtis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine saussurei (et saussurii) rend hommage à l'entomologiste suisse Henri de Saussure (1829-1905).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Éch. A17 et 17a. Coll Mus. Paris.
+L'empreinte et la contre-empreinte de cet Insecte sont mal conservées. La nervation des ailes n'est visible qu'en partie. Tête et thorax noirs, abdomen brun. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps, y compris la tarière, est de 12,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Il n'est pas possible de déterminer avec précision cet échantillon. Heer de même n'a disposé que d'un mauvais exemplaire pour établir le type de cette espèce qui est sans aucune valeur. Elle est peut-être identique à Fintona aff. nigripalpais Cam. du même gisement. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_saussurei</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Pimpla est cosmopolite. »[6].
+« Le g. Pimpla est cosmopolite. ».
 </t>
         </is>
       </c>
